--- a/PNB.xlsx
+++ b/PNB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="17">
   <si>
     <t>Day Of Week</t>
   </si>
@@ -24542,7 +24542,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27330,6 +27330,614 @@
       </c>
       <c r="J87">
         <v>-0.9499999999999957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>35.6</v>
+      </c>
+      <c r="D88">
+        <v>34.85</v>
+      </c>
+      <c r="E88">
+        <v>35.35</v>
+      </c>
+      <c r="F88">
+        <v>33.75</v>
+      </c>
+      <c r="G88">
+        <v>35.3</v>
+      </c>
+      <c r="H88">
+        <v>35.05</v>
+      </c>
+      <c r="I88">
+        <v>-0.75</v>
+      </c>
+      <c r="J88">
+        <v>0.1999999999999957</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>35.05</v>
+      </c>
+      <c r="D89">
+        <v>35.75</v>
+      </c>
+      <c r="E89">
+        <v>38.2</v>
+      </c>
+      <c r="F89">
+        <v>35.55</v>
+      </c>
+      <c r="G89">
+        <v>37.1</v>
+      </c>
+      <c r="H89">
+        <v>37.1</v>
+      </c>
+      <c r="I89">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="J89">
+        <v>1.350000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>37.1</v>
+      </c>
+      <c r="D90">
+        <v>37.8</v>
+      </c>
+      <c r="E90">
+        <v>38.4</v>
+      </c>
+      <c r="F90">
+        <v>36.5</v>
+      </c>
+      <c r="G90">
+        <v>36.75</v>
+      </c>
+      <c r="H90">
+        <v>36.8</v>
+      </c>
+      <c r="I90">
+        <v>0.6999999999999957</v>
+      </c>
+      <c r="J90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>36.8</v>
+      </c>
+      <c r="D91">
+        <v>37.2</v>
+      </c>
+      <c r="E91">
+        <v>37.8</v>
+      </c>
+      <c r="F91">
+        <v>36.85</v>
+      </c>
+      <c r="G91">
+        <v>37.75</v>
+      </c>
+      <c r="H91">
+        <v>37.65</v>
+      </c>
+      <c r="I91">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="J91">
+        <v>0.4499999999999957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>37.65</v>
+      </c>
+      <c r="D92">
+        <v>38.35</v>
+      </c>
+      <c r="E92">
+        <v>38.35</v>
+      </c>
+      <c r="F92">
+        <v>37.2</v>
+      </c>
+      <c r="G92">
+        <v>37.45</v>
+      </c>
+      <c r="H92">
+        <v>37.35</v>
+      </c>
+      <c r="I92">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="J92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>37.35</v>
+      </c>
+      <c r="D93">
+        <v>36.3</v>
+      </c>
+      <c r="E93">
+        <v>36.85</v>
+      </c>
+      <c r="F93">
+        <v>35.75</v>
+      </c>
+      <c r="G93">
+        <v>36.3</v>
+      </c>
+      <c r="H93">
+        <v>36.2</v>
+      </c>
+      <c r="I93">
+        <v>-1.050000000000004</v>
+      </c>
+      <c r="J93">
+        <v>-0.09999999999999432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>36.2</v>
+      </c>
+      <c r="D94">
+        <v>36.5</v>
+      </c>
+      <c r="E94">
+        <v>37.9</v>
+      </c>
+      <c r="F94">
+        <v>35.95</v>
+      </c>
+      <c r="G94">
+        <v>37.9</v>
+      </c>
+      <c r="H94">
+        <v>37.5</v>
+      </c>
+      <c r="I94">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>37.5</v>
+      </c>
+      <c r="D95">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>38.35</v>
+      </c>
+      <c r="F95">
+        <v>37.55</v>
+      </c>
+      <c r="G95">
+        <v>38.15</v>
+      </c>
+      <c r="H95">
+        <v>38.05</v>
+      </c>
+      <c r="I95">
+        <v>0.5</v>
+      </c>
+      <c r="J95">
+        <v>0.04999999999999716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>38.05</v>
+      </c>
+      <c r="D96">
+        <v>39.2</v>
+      </c>
+      <c r="E96">
+        <v>40.1</v>
+      </c>
+      <c r="F96">
+        <v>38.75</v>
+      </c>
+      <c r="G96">
+        <v>40</v>
+      </c>
+      <c r="H96">
+        <v>39.8</v>
+      </c>
+      <c r="I96">
+        <v>1.150000000000006</v>
+      </c>
+      <c r="J96">
+        <v>0.5999999999999943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>39.8</v>
+      </c>
+      <c r="D97">
+        <v>40.4</v>
+      </c>
+      <c r="E97">
+        <v>40.5</v>
+      </c>
+      <c r="F97">
+        <v>39.2</v>
+      </c>
+      <c r="G97">
+        <v>39.35</v>
+      </c>
+      <c r="H97">
+        <v>39.35</v>
+      </c>
+      <c r="I97">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="J97">
+        <v>-1.049999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>39.35</v>
+      </c>
+      <c r="D98">
+        <v>39.5</v>
+      </c>
+      <c r="E98">
+        <v>40.25</v>
+      </c>
+      <c r="F98">
+        <v>39.05</v>
+      </c>
+      <c r="G98">
+        <v>39.3</v>
+      </c>
+      <c r="H98">
+        <v>39.25</v>
+      </c>
+      <c r="I98">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="J98">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>39.25</v>
+      </c>
+      <c r="D99">
+        <v>39.5</v>
+      </c>
+      <c r="E99">
+        <v>42.4</v>
+      </c>
+      <c r="F99">
+        <v>39.4</v>
+      </c>
+      <c r="G99">
+        <v>42</v>
+      </c>
+      <c r="H99">
+        <v>42.15</v>
+      </c>
+      <c r="I99">
+        <v>0.25</v>
+      </c>
+      <c r="J99">
+        <v>2.649999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>42.15</v>
+      </c>
+      <c r="D100">
+        <v>42.8</v>
+      </c>
+      <c r="E100">
+        <v>42.8</v>
+      </c>
+      <c r="F100">
+        <v>41</v>
+      </c>
+      <c r="G100">
+        <v>42.35</v>
+      </c>
+      <c r="H100">
+        <v>42.25</v>
+      </c>
+      <c r="I100">
+        <v>0.6499999999999986</v>
+      </c>
+      <c r="J100">
+        <v>-0.5499999999999972</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>42.25</v>
+      </c>
+      <c r="D101">
+        <v>42.35</v>
+      </c>
+      <c r="E101">
+        <v>43.2</v>
+      </c>
+      <c r="F101">
+        <v>41.6</v>
+      </c>
+      <c r="G101">
+        <v>42.3</v>
+      </c>
+      <c r="H101">
+        <v>42.4</v>
+      </c>
+      <c r="I101">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="J101">
+        <v>0.04999999999999716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>42.4</v>
+      </c>
+      <c r="D102">
+        <v>42.55</v>
+      </c>
+      <c r="E102">
+        <v>42.65</v>
+      </c>
+      <c r="F102">
+        <v>41.1</v>
+      </c>
+      <c r="G102">
+        <v>41.65</v>
+      </c>
+      <c r="H102">
+        <v>41.65</v>
+      </c>
+      <c r="I102">
+        <v>0.1499999999999986</v>
+      </c>
+      <c r="J102">
+        <v>-0.8999999999999986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>41.65</v>
+      </c>
+      <c r="D103">
+        <v>41.9</v>
+      </c>
+      <c r="E103">
+        <v>44.55</v>
+      </c>
+      <c r="F103">
+        <v>41.6</v>
+      </c>
+      <c r="G103">
+        <v>43.9</v>
+      </c>
+      <c r="H103">
+        <v>44</v>
+      </c>
+      <c r="I103">
+        <v>0.25</v>
+      </c>
+      <c r="J103">
+        <v>2.100000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>44.5</v>
+      </c>
+      <c r="E104">
+        <v>45</v>
+      </c>
+      <c r="F104">
+        <v>43.4</v>
+      </c>
+      <c r="G104">
+        <v>43.45</v>
+      </c>
+      <c r="H104">
+        <v>43.7</v>
+      </c>
+      <c r="I104">
+        <v>0.5</v>
+      </c>
+      <c r="J104">
+        <v>-0.7999999999999972</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>43.7</v>
+      </c>
+      <c r="D105">
+        <v>43.55</v>
+      </c>
+      <c r="E105">
+        <v>43.6</v>
+      </c>
+      <c r="F105">
+        <v>42.95</v>
+      </c>
+      <c r="G105">
+        <v>43.1</v>
+      </c>
+      <c r="H105">
+        <v>43.1</v>
+      </c>
+      <c r="I105">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="J105">
+        <v>-0.4499999999999957</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>43.1</v>
+      </c>
+      <c r="D106">
+        <v>43</v>
+      </c>
+      <c r="E106">
+        <v>43.1</v>
+      </c>
+      <c r="F106">
+        <v>41.85</v>
+      </c>
+      <c r="G106">
+        <v>42.15</v>
+      </c>
+      <c r="H106">
+        <v>42.1</v>
+      </c>
+      <c r="I106">
+        <v>-0.1000000000000014</v>
+      </c>
+      <c r="J106">
+        <v>-0.8999999999999986</v>
       </c>
     </row>
   </sheetData>
